--- a/CRSP.xlsx
+++ b/CRSP.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A026DF-CA82-48FF-999A-C76304D78679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435207FF-6B0B-4F51-BDF5-3D9B333FB5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24330" yWindow="1140" windowWidth="29145" windowHeight="19545" activeTab="2" xr2:uid="{1C79B58B-B82D-44F0-B2E8-82D243545AE2}"/>
+    <workbookView xWindow="-37710" yWindow="0" windowWidth="29955" windowHeight="19170" xr2:uid="{1C79B58B-B82D-44F0-B2E8-82D243545AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="exa-cel" sheetId="2" r:id="rId2"/>
+    <sheet name="Casgevy" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Price</t>
   </si>
@@ -82,9 +82,6 @@
     <t>CTX130</t>
   </si>
   <si>
-    <t>exa-cel</t>
-  </si>
-  <si>
     <t>SCD, B-thal</t>
   </si>
   <si>
@@ -115,12 +112,6 @@
     <t>HbF</t>
   </si>
   <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>Filed</t>
-  </si>
-  <si>
     <t>IP</t>
   </si>
   <si>
@@ -200,12 +191,81 @@
   </si>
   <si>
     <t>Split</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Casgevy (exa-cel)</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>CTX112</t>
+  </si>
+  <si>
+    <t>CTX211</t>
+  </si>
+  <si>
+    <t>T1D</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>CTX310</t>
+  </si>
+  <si>
+    <t>ANGPTL3</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>CTX320</t>
+  </si>
+  <si>
+    <t>LPA</t>
+  </si>
+  <si>
+    <t>CTX340</t>
+  </si>
+  <si>
+    <t>Angiotensinogen</t>
+  </si>
+  <si>
+    <t>CTX450</t>
+  </si>
+  <si>
+    <t>ALAS1</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>AIP</t>
+  </si>
+  <si>
+    <t>CD70</t>
+  </si>
+  <si>
+    <t>Allogeneic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -336,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -347,22 +407,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EA3F42AD-B007-4E0B-8F8A-49AC43318E80}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -375,9 +438,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -415,7 +478,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -521,7 +584,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -663,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -671,19 +734,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD17C675-368D-4950-ACC1-F92026601A1F}">
-  <dimension ref="B2:O17"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
@@ -694,222 +760,241 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>47.01</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>47.71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="M3" t="s">
+      <c r="H3" s="8"/>
+      <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="2">
-        <v>78.646679000000006</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L3" s="2">
+        <v>85.168158000000005</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="M4" t="s">
+      <c r="H4" s="8"/>
+      <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="2">
-        <f>N2*N3</f>
-        <v>3752.2330550900006</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L4" s="2">
+        <f>L2*L3</f>
+        <v>4003.7551075800002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="M5" t="s">
+      <c r="H5" s="8"/>
+      <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="2">
-        <f>211.885+1603.433+53.13</f>
-        <v>1868.4480000000001</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L5" s="2">
+        <f>484.472+1517.147+11.216</f>
+        <v>2012.8349999999998</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="M6" t="s">
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="L6">
         <v>0</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="M7" t="s">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="K7" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="2">
-        <f>N4-N5+N6</f>
-        <v>1883.7850550900005</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L7" s="2">
+        <f>L4-L5+L6</f>
+        <v>1990.9201075800004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="8"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3223.924</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="8"/>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1242.6990000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -932,8 +1017,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>20</v>
+      <c r="A1" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -941,15 +1026,15 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -957,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -965,55 +1050,55 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="16" t="s">
-        <v>30</v>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="16" t="s">
-        <v>31</v>
+      <c r="C10" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="16" t="s">
-        <v>38</v>
+      <c r="C12" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="16" t="s">
-        <v>32</v>
+      <c r="C14" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="16" t="s">
-        <v>34</v>
+      <c r="C16" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="16" t="s">
-        <v>33</v>
+      <c r="C18" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1028,11 +1113,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858A08D0-0AC1-41F8-BADB-3F916A563A72}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1042,43 +1127,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>20</v>
+      <c r="A1" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>6</v>
@@ -1149,7 +1234,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V3">
         <v>100</v>
@@ -1202,7 +1287,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V4" s="2">
         <f>V3*0.7</f>
@@ -1259,7 +1344,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="V5" s="2">
         <f>V4*0.4</f>
@@ -1316,7 +1401,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
